--- a/Team Feedback.xlsx
+++ b/Team Feedback.xlsx
@@ -19,9 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Don't force client to have to 'imagine' anything, present it clearly
+2.GitLarge file sysem to replace github? (Grant)
+3.Have build ready and prepared to present (we can see them on their way [professionalism])
+4.Digital presentation of ideas (move away from analog)
+5.Scan of level (in digital presentation to showcase puzzle)
+6.'Why will they find it fun?' = Have an answer to work from e.g: Completing the puzzle will be satisfying and require a use of logic under pressure while navigating/avoiding danger   
+</t>
+  </si>
+  <si>
+    <t>1.Have others test game, give them few prompts, find their pitfalls
+2.Provide Audio and Art List with notes 
+3.Provide controls/known bugs/context for submissions to accompany builds
+4.Get assets and mechanics implemented within the game as soon as possible, including placeholders, so as to ensure game is coming together</t>
   </si>
 </sst>
 </file>
@@ -69,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -77,6 +92,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -361,7 +379,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,11 +399,13 @@
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43375</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -393,11 +413,13 @@
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43377</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">

--- a/Team Feedback.xlsx
+++ b/Team Feedback.xlsx
@@ -72,7 +72,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,21 +80,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,28 +407,29 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>43374</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>43375</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -408,13 +437,13 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>43376</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>43377</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -422,165 +451,190 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>43378</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>43379</v>
       </c>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="7">
         <v>43380</v>
       </c>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>43381</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>43382</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>43383</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>43384</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>43385</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="7">
         <v>43386</v>
       </c>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="7">
         <v>43387</v>
       </c>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>43388</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>43389</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>43390</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>43391</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>43392</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>43393</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>43394</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>43395</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>43396</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>43397</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>43398</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>43399</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>43400</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>43401</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>43402</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>43403</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>43404</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>43405</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>43406</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
         <v>43407</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
         <v>43408</v>
       </c>
+      <c r="B36" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Team Feedback.xlsx
+++ b/Team Feedback.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Feedback</t>
   </si>
@@ -37,6 +37,12 @@
 2.Provide Audio and Art List with notes 
 3.Provide controls/known bugs/context for submissions to accompany builds
 4.Get assets and mechanics implemented within the game as soon as possible, including placeholders, so as to ensure game is coming together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Lead with the build! (Grant)
+2.Introduce each new point with the "why" to how it is relevant, provide context, ask yourself; what am I showing and why? (Us)
+3.Powerpoint is appropriate to show examples of only what cannot be shown within the current build (Ken)
+4.Don't be scared to make a point, we need to speak up, but remain polite and open to feedback (Us)   </t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,11 +492,13 @@
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43384</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4">

--- a/Team Feedback.xlsx
+++ b/Team Feedback.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Feedback</t>
   </si>
@@ -44,13 +44,48 @@
 3.Powerpoint is appropriate to show examples of only what cannot be shown within the current build (Ken)
 4.Don't be scared to make a point, we need to speak up, but remain polite and open to feedback (Us)   </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">everyone to follow these naming conventions for future submissions: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Team_##_Week_#_yymmdd_prompt.zip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ken)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,6 +164,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,11 +556,13 @@
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43388</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -646,5 +686,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Team Feedback.xlsx
+++ b/Team Feedback.xlsx
@@ -19,56 +19,436 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Feedback</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Don't force client to have to 'imagine' anything, present it clearly
-2.GitLarge file sysem to replace github? (Grant)
-3.Have build ready and prepared to present (we can see them on their way [professionalism])
-4.Digital presentation of ideas (move away from analog)
-5.Scan of level (in digital presentation to showcase puzzle)
-6.'Why will they find it fun?' = Have an answer to work from e.g: Completing the puzzle will be satisfying and require a use of logic under pressure while navigating/avoiding danger   
-</t>
+    <r>
+      <t xml:space="preserve">everyone to follow these naming conventions for future submissions: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Team_##_Week_#_yymmdd_prompt.zip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ken)</t>
+    </r>
   </si>
   <si>
-    <t>1.Have others test game, give them few prompts, find their pitfalls
-2.Provide Audio and Art List with notes 
-3.Provide controls/known bugs/context for submissions to accompany builds
-4.Get assets and mechanics implemented within the game as soon as possible, including placeholders, so as to ensure game is coming together</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Need to find out from people who play our game what it is that they enjoy about the game and why it is appealing. How can we tailor our decisions to the game brief?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Game development decisions and reception is audience led and not technologically led.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Gentle nudges concerning arriving to office later than 9am and general work-practices
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.VIPs arriving oon, be prepared to showcase game development, and pitch it in simple-terms for someone not within the game industry. </t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">1.Lead with the build! (Grant)
-2.Introduce each new point with the "why" to how it is relevant, provide context, ask yourself; what am I showing and why? (Us)
-3.Powerpoint is appropriate to show examples of only what cannot be shown within the current build (Ken)
-4.Don't be scared to make a point, we need to speak up, but remain polite and open to feedback (Us)   </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lead with the build! (Grant)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Introduce each new point with the "why" to how it is relevant, provide context, ask yourself; what am I showing and why? (Us)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Powerpoint is appropriate to show examples of only what cannot be shown within the current build (Ken)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Don't be scared to make a point, we need to speak up, but remain polite and open to feedback (Us)   </t>
+    </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">everyone to follow these naming conventions for future submissions: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Team_##_Week_#_yymmdd_prompt.zip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Ken)</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Don't force client to have to 'imagine' anything, present it clearly
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GitLarge file sysem to replace github? (Grant)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Have build ready and prepared to present (we can see them on their way [professionalism])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Digital presentation of ideas (move away from analog)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Scan of level (in digital presentation to showcase puzzle)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Why will they find it fun?' = Have an answer to work from e.g: Completing the puzzle will be satisfying and require a use of logic under pressure while navigating/avoiding danger   
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Have others test game, give them few prompts, find their pitfalls
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Provide Audio and Art List with notes 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Provide controls/known bugs/context for submissions to accompany builds
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Get assets and mechanics implemented within the game as soon as possible, including placeholders, so as to ensure game is coming together</t>
     </r>
   </si>
 </sst>
@@ -450,14 +830,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +857,7 @@
         <v>43375</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,7 +871,7 @@
         <v>43377</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -561,7 +941,7 @@
         <v>43388</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,13 +954,15 @@
       <c r="A18" s="4">
         <v>43390</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43391</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">

--- a/Team Feedback.xlsx
+++ b/Team Feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Feedback</t>
   </si>
@@ -450,6 +450,14 @@
       </rPr>
       <t>Get assets and mechanics implemented within the game as soon as possible, including placeholders, so as to ensure game is coming together</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.plan ahead for what you don't know yet, keep an eye on elements you forsee could become an issue down the line (Graham &amp; Ricardo - Outplay)
+2.Developers often create 'rods for their own back,' making things harder for themselves when they don’t need to, leaving things in they are attached to too long for example (Graham &amp; Ricardo - Outplay) 
+3.In these chats we have as little as 5 minutes to garner as much advice and ideas as we can, use their experience and time wisely (Ken)
+4.Avoid perfectionist behaviour, sometimes you need to get something to a stage that is 'good enough for now,' and improve upon it later if time allows, otherwise the game won't become finished. 'Still continues to work - Doesn't break' (Graham &amp; Ricardo - Outplay)
+5.Proof of concept as quickly as possible, more time to improve upon it! (Graham &amp; Ricardo - Outplay) 
+</t>
   </si>
 </sst>
 </file>
@@ -830,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,11 +1014,13 @@
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43399</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
